--- a/main/companies_to_be_updated.xlsx
+++ b/main/companies_to_be_updated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH99"/>
+  <dimension ref="A1:BH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,7 +743,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -753,7 +753,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://finder.startupnationcentral.org/company_page/pery</t>
+          <t>https://finder.startupnationcentral.org/company_page/brain-space</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -825,7 +825,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -899,7 +899,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -973,7 +973,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -2908,12 +2908,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Clearmind Medicine</t>
+          <t>Theranica</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -2931,21 +2931,21 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/theranica</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>1-10</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>Public</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>6,641</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
@@ -2986,12 +2986,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Clexio Biosciences</t>
+          <t>Moodify</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -3009,16 +3009,20 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/moodify</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>11-50</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>24,424</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
@@ -3060,12 +3064,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cognishine Therapy and Education</t>
+          <t>BlueWind Medical</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -3083,16 +3087,20 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/bluewind-medical</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>11-50</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>28,694</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
@@ -3134,12 +3142,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dive Health</t>
+          <t>MyndYou</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -3157,21 +3165,21 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/myndyou</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>1-10</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>Pre-Funding</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>30,614</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
@@ -3212,12 +3220,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Eleos Health</t>
+          <t>GrayMatters Health</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -3235,17 +3243,21 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/graymatters-health</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>31,735</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
@@ -3286,12 +3298,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Eye-minders</t>
+          <t>Myndlift</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -3299,11 +3311,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>https://finder.startupnationcentral.org/company_page/eye-minders</t>
-        </is>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3313,17 +3321,21 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/myndlift</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>Pre-Funding</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>36,462</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
@@ -3364,12 +3376,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Helping Minds</t>
+          <t>Pery</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -3391,12 +3403,12 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>11-50</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>51,068</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
@@ -3438,12 +3450,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kai.ai</t>
+          <t>i-BrainTech</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -3461,17 +3473,21 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/i-brain-aa5b</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>Pre-Seed</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>51,676</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
@@ -3512,12 +3528,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mind Guard</t>
+          <t>NeuroBrave</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -3539,17 +3555,13 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>11-50</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>Pre-Seed</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>65,360</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
@@ -3590,12 +3602,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mindtension</t>
+          <t>Ornim Medical</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -3613,17 +3625,21 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/ornim-medical</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>Seed</t>
-        </is>
-      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>80,572</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
@@ -3664,12 +3680,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Neurogenic</t>
+          <t>Inretio Medical Device</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -3692,12 +3708,12 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>Pre-Funding</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>106,881</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
@@ -3738,12 +3754,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pery</t>
+          <t>GGTUDE</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -3751,11 +3767,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>https://finder.startupnationcentral.org/company_page/pery</t>
-        </is>
-      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -3770,12 +3782,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>Seed</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>120,811</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
@@ -3816,12 +3828,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SensoryTreat</t>
+          <t>Synergym.Ai</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -3844,12 +3856,12 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>Mature</t>
-        </is>
-      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>123,126</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
@@ -3890,12 +3902,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Theranica</t>
+          <t>Logical Commander</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -3913,18 +3925,14 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/theranica</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr">
         <is>
-          <t>6,641</t>
+          <t>127,752</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -3968,12 +3976,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Moodify</t>
+          <t>Conflu3nce</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -3993,7 +4001,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>https://www.crunchbase.com/organization/moodify</t>
+          <t>https://www.crunchbase.com/organization/conflu3nce</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -4002,7 +4010,7 @@
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr">
         <is>
-          <t>24,424</t>
+          <t>154,135</t>
         </is>
       </c>
       <c r="X45" t="inlineStr"/>
@@ -4046,12 +4054,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BlueWind Medical</t>
+          <t>Cell Cure Neurosciences</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -4071,7 +4079,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>https://www.crunchbase.com/organization/bluewind-medical</t>
+          <t>https://www.crunchbase.com/organization/cell-cure-neurosciences</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -4080,7 +4088,7 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>28,694</t>
+          <t>164,924</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
@@ -4124,12 +4132,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MyndYou</t>
+          <t>Kai.ai</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -4147,18 +4155,14 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/myndyou</t>
-        </is>
-      </c>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr">
         <is>
-          <t>30,614</t>
+          <t>202,077</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>
@@ -4202,12 +4206,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GrayMatters Health</t>
+          <t>Brainvivo</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -4227,7 +4231,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>https://www.crunchbase.com/organization/graymatters-health</t>
+          <t>https://www.crunchbase.com/organization/brainvivo</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -4236,7 +4240,7 @@
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr">
         <is>
-          <t>31,735</t>
+          <t>228,784</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -4280,12 +4284,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Myndlift</t>
+          <t>InnerEye</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -4305,7 +4309,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>https://www.crunchbase.com/organization/myndlift</t>
+          <t>https://www.crunchbase.com/organization/innereye</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -4314,7 +4318,7 @@
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr">
         <is>
-          <t>36,462</t>
+          <t>267,211</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -4358,12 +4362,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>i-BrainTech</t>
+          <t>NeuroQuest</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -4381,18 +4385,14 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/i-brain-aa5b</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr">
         <is>
-          <t>51,676</t>
+          <t>331,719</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -4436,12 +4436,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NeuroBrave</t>
+          <t>Keystone Heart</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -4459,14 +4459,18 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/keystone-heart</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr">
         <is>
-          <t>65,360</t>
+          <t>385,543</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -4510,12 +4514,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ornim Medical</t>
+          <t>SensoMedical</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -4533,18 +4537,14 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/ornim-medical</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr">
         <is>
-          <t>80,572</t>
+          <t>399,647</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -4588,12 +4588,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Inretio Medical Device</t>
+          <t>Solo</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -4611,14 +4611,18 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/solo-2416</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr">
         <is>
-          <t>106,881</t>
+          <t>426,361</t>
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
@@ -4662,12 +4666,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>GGTUDE</t>
+          <t>Prospec</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -4685,14 +4689,18 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/prospec-tany-technogene</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr">
         <is>
-          <t>120,811</t>
+          <t>453,597</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -4736,12 +4744,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Synergym.Ai</t>
+          <t>Medoc</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -4759,14 +4767,18 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/medoc</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr">
         <is>
-          <t>123,126</t>
+          <t>533,478</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -4810,12 +4822,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Logical Commander</t>
+          <t>GeneGrafts</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -4833,14 +4845,18 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/genegrafts</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr">
         <is>
-          <t>127,752</t>
+          <t>537,213</t>
         </is>
       </c>
       <c r="X56" t="inlineStr"/>
@@ -4884,12 +4900,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Conflu3nce</t>
+          <t>Optical Imaging</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -4909,7 +4925,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>https://www.crunchbase.com/organization/conflu3nce</t>
+          <t>https://www.crunchbase.com/organization/optical-imaging</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -4918,7 +4934,7 @@
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr">
         <is>
-          <t>154,135</t>
+          <t>636,664</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
@@ -4962,12 +4978,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Cell Cure Neurosciences</t>
+          <t>Ceretrieve</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -4987,7 +5003,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>https://www.crunchbase.com/organization/cell-cure-neurosciences</t>
+          <t>https://www.crunchbase.com/organization/ceretrieve</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -4996,7 +5012,7 @@
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr">
         <is>
-          <t>164,924</t>
+          <t>661,578</t>
         </is>
       </c>
       <c r="X58" t="inlineStr"/>
@@ -5040,12 +5056,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Brainvivo</t>
+          <t>Effectivate</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -5065,7 +5081,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>https://www.crunchbase.com/organization/brainvivo</t>
+          <t>https://www.crunchbase.com/organization/acerar-effectivate</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -5074,7 +5090,7 @@
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr">
         <is>
-          <t>228,784</t>
+          <t>676,774</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -5118,12 +5134,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>InnerEye</t>
+          <t>Neuromagen Pharma</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -5141,18 +5157,14 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/innereye</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr">
         <is>
-          <t>267,211</t>
+          <t>737,348</t>
         </is>
       </c>
       <c r="X60" t="inlineStr"/>
@@ -5196,12 +5208,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NeuroQuest</t>
+          <t>NeuroIndex</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -5226,7 +5238,7 @@
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr">
         <is>
-          <t>331,719</t>
+          <t>777,402</t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>
@@ -5270,12 +5282,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Keystone Heart</t>
+          <t>CogMe</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -5295,7 +5307,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>https://www.crunchbase.com/organization/keystone-heart</t>
+          <t>https://www.crunchbase.com/organization/cogme</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -5304,7 +5316,7 @@
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr">
         <is>
-          <t>385,543</t>
+          <t>1,196,847</t>
         </is>
       </c>
       <c r="X62" t="inlineStr"/>
@@ -5348,12 +5360,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SensoMedical</t>
+          <t>InnoVision Labs</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -5371,14 +5383,18 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/innovision-labs</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr">
         <is>
-          <t>399,647</t>
+          <t>1,209,326</t>
         </is>
       </c>
       <c r="X63" t="inlineStr"/>
@@ -5422,12 +5438,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Solo</t>
+          <t>Ctx Platforms</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -5447,7 +5463,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>https://www.crunchbase.com/organization/solo-2416</t>
+          <t>https://www.crunchbase.com/organization/ctx-platforms</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -5456,7 +5472,7 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr">
         <is>
-          <t>426,361</t>
+          <t>1,659,533</t>
         </is>
       </c>
       <c r="X64" t="inlineStr"/>
@@ -5500,12 +5516,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Prospec</t>
+          <t>Brainose Technologies</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -5525,7 +5541,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>https://www.crunchbase.com/organization/prospec-tany-technogene</t>
+          <t>https://www.crunchbase.com/organization/brainose-technologies</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -5534,7 +5550,7 @@
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr">
         <is>
-          <t>453,597</t>
+          <t>1,789,691</t>
         </is>
       </c>
       <c r="X65" t="inlineStr"/>
@@ -5578,12 +5594,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Medoc</t>
+          <t>BrainVu</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -5603,7 +5619,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>https://www.crunchbase.com/organization/medoc</t>
+          <t>https://www.crunchbase.com/organization/brainvu</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -5612,7 +5628,7 @@
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr">
         <is>
-          <t>533,478</t>
+          <t>1,998,190</t>
         </is>
       </c>
       <c r="X66" t="inlineStr"/>
@@ -5656,12 +5672,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GeneGrafts</t>
+          <t>Neurogenic</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -5679,18 +5695,14 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/genegrafts</t>
-        </is>
-      </c>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr">
         <is>
-          <t>537,213</t>
+          <t>2,084,902</t>
         </is>
       </c>
       <c r="X67" t="inlineStr"/>
@@ -5734,12 +5746,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Optical Imaging</t>
+          <t>Mental Heal</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -5759,7 +5771,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>https://www.crunchbase.com/organization/optical-imaging</t>
+          <t>https://www.crunchbase.com/organization/mental-heal</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -5768,7 +5780,7 @@
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr">
         <is>
-          <t>636,664</t>
+          <t>2,358,557</t>
         </is>
       </c>
       <c r="X68" t="inlineStr"/>
@@ -5812,12 +5824,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ceretrieve</t>
+          <t>Head Habitat</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -5835,18 +5847,14 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/ceretrieve</t>
-        </is>
-      </c>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr">
         <is>
-          <t>661,578</t>
+          <t>2,594,205</t>
         </is>
       </c>
       <c r="X69" t="inlineStr"/>
@@ -5890,12 +5898,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Effectivate</t>
+          <t>Surpass Medical</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -5915,7 +5923,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>https://www.crunchbase.com/organization/acerar-effectivate</t>
+          <t>https://www.crunchbase.com/organization/surpass-medical</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -5924,7 +5932,7 @@
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr">
         <is>
-          <t>676,774</t>
+          <t>2,812,850</t>
         </is>
       </c>
       <c r="X70" t="inlineStr"/>
@@ -5968,12 +5976,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Neuromagen Pharma</t>
+          <t>CogAid</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -5991,14 +5999,18 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/cogaid</t>
+        </is>
+      </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr">
         <is>
-          <t>737,348</t>
+          <t>2,848,607</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
@@ -6042,12 +6054,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NeuroIndex</t>
+          <t>NeuroPet</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -6065,14 +6077,18 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/neuropet</t>
+        </is>
+      </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr">
         <is>
-          <t>777,402</t>
+          <t>3,144,950</t>
         </is>
       </c>
       <c r="X72" t="inlineStr"/>
@@ -6116,12 +6132,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CogMe</t>
+          <t>Brainster</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -6141,7 +6157,7 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>https://www.crunchbase.com/organization/cogme</t>
+          <t>https://www.crunchbase.com/organization/brainster-israel</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -6150,7 +6166,7 @@
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr">
         <is>
-          <t>1,196,847</t>
+          <t>3,160,373</t>
         </is>
       </c>
       <c r="X73" t="inlineStr"/>
@@ -6194,12 +6210,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>InnoVision Labs</t>
+          <t>kmoEye</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -6219,7 +6235,7 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>https://www.crunchbase.com/organization/innovision-labs</t>
+          <t>https://www.crunchbase.com/organization/kmoeye</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -6228,7 +6244,7 @@
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr">
         <is>
-          <t>1,209,326</t>
+          <t>3,169,650</t>
         </is>
       </c>
       <c r="X74" t="inlineStr"/>
@@ -6272,12 +6288,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Ctx Platforms</t>
+          <t>Ixtlan Bioscience</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -6295,18 +6311,14 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/ctx-platforms</t>
-        </is>
-      </c>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr">
         <is>
-          <t>1,659,533</t>
+          <t>3,183,743</t>
         </is>
       </c>
       <c r="X75" t="inlineStr"/>
@@ -6350,12 +6362,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Brainose Technologies</t>
+          <t>TreTone</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -6375,7 +6387,7 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>https://www.crunchbase.com/organization/brainose-technologies</t>
+          <t>https://www.crunchbase.com/organization/tretone</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -6384,7 +6396,7 @@
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr">
         <is>
-          <t>1,789,691</t>
+          <t>3,206,839</t>
         </is>
       </c>
       <c r="X76" t="inlineStr"/>
@@ -6428,12 +6440,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BrainVu</t>
+          <t>brain.space</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -6441,7 +6453,11 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/brain-space</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -6451,21 +6467,17 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/brainvu</t>
-        </is>
-      </c>
+      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>1,998,190</t>
-        </is>
-      </c>
-      <c r="X77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
@@ -6506,12 +6518,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Mental Heal</t>
+          <t>Clearmind Medicine</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -6529,21 +6541,21 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/mental-heal</t>
-        </is>
-      </c>
+      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>2,358,557</t>
-        </is>
-      </c>
-      <c r="X78" t="inlineStr"/>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
@@ -6584,12 +6596,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Head Habitat</t>
+          <t>Clexio Biosciences</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -6611,12 +6623,12 @@
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>2,594,205</t>
-        </is>
-      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
@@ -6658,12 +6670,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Surpass Medical</t>
+          <t>Cognishine Therapy and Education</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -6681,20 +6693,16 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/surpass-medical</t>
-        </is>
-      </c>
+      <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>2,812,850</t>
-        </is>
-      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
@@ -6736,12 +6744,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CogAid</t>
+          <t>Dive Health</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -6759,21 +6767,21 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/cogaid</t>
-        </is>
-      </c>
+      <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>2,848,607</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr"/>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Pre-Funding</t>
+        </is>
+      </c>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
@@ -6814,12 +6822,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NeuroPet</t>
+          <t>Eleos Health</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -6837,21 +6845,17 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/neuropet</t>
-        </is>
-      </c>
+      <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>3,144,950</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
@@ -6892,12 +6896,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Brainster</t>
+          <t>Eye-minders</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -6905,7 +6909,11 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/eye-minders</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -6915,21 +6923,17 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/brainster-israel</t>
-        </is>
-      </c>
+      <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>3,160,373</t>
-        </is>
-      </c>
-      <c r="X83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Pre-Funding</t>
+        </is>
+      </c>
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
@@ -6970,12 +6974,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>kmoEye</t>
+          <t>Helping Minds</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -6993,20 +6997,16 @@
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/kmoeye</t>
-        </is>
-      </c>
+      <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>3,169,650</t>
-        </is>
-      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
@@ -7048,12 +7048,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Ixtlan Bioscience</t>
+          <t>Mind Guard</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -7075,13 +7075,17 @@
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>3,183,743</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr"/>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Pre-Seed</t>
+        </is>
+      </c>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
@@ -7122,12 +7126,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>TreTone</t>
+          <t>Mindtension</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -7145,21 +7149,17 @@
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/tretone</t>
-        </is>
-      </c>
+      <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>3,206,839</t>
-        </is>
-      </c>
-      <c r="X86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
@@ -7200,12 +7200,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NeuroDerm</t>
+          <t>SensoryTreat</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16-01-2025</t>
+          <t>21-01-2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -7231,7 +7231,7 @@
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Mature</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr"/>
@@ -7271,910 +7271,6 @@
       <c r="BG87" t="inlineStr"/>
       <c r="BH87" t="inlineStr"/>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Anima Biotech</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>16-01-2025</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>Seed</t>
-        </is>
-      </c>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
-      <c r="AB88" t="inlineStr"/>
-      <c r="AC88" t="inlineStr"/>
-      <c r="AD88" t="inlineStr"/>
-      <c r="AE88" t="inlineStr"/>
-      <c r="AF88" t="inlineStr"/>
-      <c r="AG88" t="inlineStr"/>
-      <c r="AH88" t="inlineStr"/>
-      <c r="AI88" t="inlineStr"/>
-      <c r="AJ88" t="inlineStr"/>
-      <c r="AK88" t="inlineStr"/>
-      <c r="AL88" t="inlineStr"/>
-      <c r="AM88" t="inlineStr"/>
-      <c r="AN88" t="inlineStr"/>
-      <c r="AO88" t="inlineStr"/>
-      <c r="AP88" t="inlineStr"/>
-      <c r="AQ88" t="inlineStr"/>
-      <c r="AR88" t="inlineStr"/>
-      <c r="AS88" t="inlineStr"/>
-      <c r="AT88" t="inlineStr"/>
-      <c r="AU88" t="inlineStr"/>
-      <c r="AV88" t="inlineStr"/>
-      <c r="AW88" t="inlineStr"/>
-      <c r="AX88" t="inlineStr"/>
-      <c r="AY88" t="inlineStr"/>
-      <c r="AZ88" t="inlineStr"/>
-      <c r="BA88" t="inlineStr"/>
-      <c r="BB88" t="inlineStr"/>
-      <c r="BC88" t="inlineStr"/>
-      <c r="BD88" t="inlineStr"/>
-      <c r="BE88" t="inlineStr"/>
-      <c r="BF88" t="inlineStr"/>
-      <c r="BG88" t="inlineStr"/>
-      <c r="BH88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Bendit</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>16-01-2025</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>11-50</t>
-        </is>
-      </c>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>Mature</t>
-        </is>
-      </c>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
-      <c r="AB89" t="inlineStr"/>
-      <c r="AC89" t="inlineStr"/>
-      <c r="AD89" t="inlineStr"/>
-      <c r="AE89" t="inlineStr"/>
-      <c r="AF89" t="inlineStr"/>
-      <c r="AG89" t="inlineStr"/>
-      <c r="AH89" t="inlineStr"/>
-      <c r="AI89" t="inlineStr"/>
-      <c r="AJ89" t="inlineStr"/>
-      <c r="AK89" t="inlineStr"/>
-      <c r="AL89" t="inlineStr"/>
-      <c r="AM89" t="inlineStr"/>
-      <c r="AN89" t="inlineStr"/>
-      <c r="AO89" t="inlineStr"/>
-      <c r="AP89" t="inlineStr"/>
-      <c r="AQ89" t="inlineStr"/>
-      <c r="AR89" t="inlineStr"/>
-      <c r="AS89" t="inlineStr"/>
-      <c r="AT89" t="inlineStr"/>
-      <c r="AU89" t="inlineStr"/>
-      <c r="AV89" t="inlineStr"/>
-      <c r="AW89" t="inlineStr"/>
-      <c r="AX89" t="inlineStr"/>
-      <c r="AY89" t="inlineStr"/>
-      <c r="AZ89" t="inlineStr"/>
-      <c r="BA89" t="inlineStr"/>
-      <c r="BB89" t="inlineStr"/>
-      <c r="BC89" t="inlineStr"/>
-      <c r="BD89" t="inlineStr"/>
-      <c r="BE89" t="inlineStr"/>
-      <c r="BF89" t="inlineStr"/>
-      <c r="BG89" t="inlineStr"/>
-      <c r="BH89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Bioness</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>16-01-2025</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>11-50</t>
-        </is>
-      </c>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr">
-        <is>
-          <t>Acquired</t>
-        </is>
-      </c>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="inlineStr"/>
-      <c r="AB90" t="inlineStr"/>
-      <c r="AC90" t="inlineStr"/>
-      <c r="AD90" t="inlineStr"/>
-      <c r="AE90" t="inlineStr"/>
-      <c r="AF90" t="inlineStr"/>
-      <c r="AG90" t="inlineStr"/>
-      <c r="AH90" t="inlineStr"/>
-      <c r="AI90" t="inlineStr"/>
-      <c r="AJ90" t="inlineStr"/>
-      <c r="AK90" t="inlineStr"/>
-      <c r="AL90" t="inlineStr"/>
-      <c r="AM90" t="inlineStr"/>
-      <c r="AN90" t="inlineStr"/>
-      <c r="AO90" t="inlineStr"/>
-      <c r="AP90" t="inlineStr"/>
-      <c r="AQ90" t="inlineStr"/>
-      <c r="AR90" t="inlineStr"/>
-      <c r="AS90" t="inlineStr"/>
-      <c r="AT90" t="inlineStr"/>
-      <c r="AU90" t="inlineStr"/>
-      <c r="AV90" t="inlineStr"/>
-      <c r="AW90" t="inlineStr"/>
-      <c r="AX90" t="inlineStr"/>
-      <c r="AY90" t="inlineStr"/>
-      <c r="AZ90" t="inlineStr"/>
-      <c r="BA90" t="inlineStr"/>
-      <c r="BB90" t="inlineStr"/>
-      <c r="BC90" t="inlineStr"/>
-      <c r="BD90" t="inlineStr"/>
-      <c r="BE90" t="inlineStr"/>
-      <c r="BF90" t="inlineStr"/>
-      <c r="BG90" t="inlineStr"/>
-      <c r="BH90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>brain.space</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>16-01-2025</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>https://finder.startupnationcentral.org/company_page/brain-space</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr"/>
-      <c r="AB91" t="inlineStr"/>
-      <c r="AC91" t="inlineStr"/>
-      <c r="AD91" t="inlineStr"/>
-      <c r="AE91" t="inlineStr"/>
-      <c r="AF91" t="inlineStr"/>
-      <c r="AG91" t="inlineStr"/>
-      <c r="AH91" t="inlineStr"/>
-      <c r="AI91" t="inlineStr"/>
-      <c r="AJ91" t="inlineStr"/>
-      <c r="AK91" t="inlineStr"/>
-      <c r="AL91" t="inlineStr"/>
-      <c r="AM91" t="inlineStr"/>
-      <c r="AN91" t="inlineStr"/>
-      <c r="AO91" t="inlineStr"/>
-      <c r="AP91" t="inlineStr"/>
-      <c r="AQ91" t="inlineStr"/>
-      <c r="AR91" t="inlineStr"/>
-      <c r="AS91" t="inlineStr"/>
-      <c r="AT91" t="inlineStr"/>
-      <c r="AU91" t="inlineStr"/>
-      <c r="AV91" t="inlineStr"/>
-      <c r="AW91" t="inlineStr"/>
-      <c r="AX91" t="inlineStr"/>
-      <c r="AY91" t="inlineStr"/>
-      <c r="AZ91" t="inlineStr"/>
-      <c r="BA91" t="inlineStr"/>
-      <c r="BB91" t="inlineStr"/>
-      <c r="BC91" t="inlineStr"/>
-      <c r="BD91" t="inlineStr"/>
-      <c r="BE91" t="inlineStr"/>
-      <c r="BF91" t="inlineStr"/>
-      <c r="BG91" t="inlineStr"/>
-      <c r="BH91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Eyecuracy</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>16-01-2025</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>Seed</t>
-        </is>
-      </c>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
-      <c r="AA92" t="inlineStr"/>
-      <c r="AB92" t="inlineStr"/>
-      <c r="AC92" t="inlineStr"/>
-      <c r="AD92" t="inlineStr"/>
-      <c r="AE92" t="inlineStr"/>
-      <c r="AF92" t="inlineStr"/>
-      <c r="AG92" t="inlineStr"/>
-      <c r="AH92" t="inlineStr"/>
-      <c r="AI92" t="inlineStr"/>
-      <c r="AJ92" t="inlineStr"/>
-      <c r="AK92" t="inlineStr"/>
-      <c r="AL92" t="inlineStr"/>
-      <c r="AM92" t="inlineStr"/>
-      <c r="AN92" t="inlineStr"/>
-      <c r="AO92" t="inlineStr"/>
-      <c r="AP92" t="inlineStr"/>
-      <c r="AQ92" t="inlineStr"/>
-      <c r="AR92" t="inlineStr"/>
-      <c r="AS92" t="inlineStr"/>
-      <c r="AT92" t="inlineStr"/>
-      <c r="AU92" t="inlineStr"/>
-      <c r="AV92" t="inlineStr"/>
-      <c r="AW92" t="inlineStr"/>
-      <c r="AX92" t="inlineStr"/>
-      <c r="AY92" t="inlineStr"/>
-      <c r="AZ92" t="inlineStr"/>
-      <c r="BA92" t="inlineStr"/>
-      <c r="BB92" t="inlineStr"/>
-      <c r="BC92" t="inlineStr"/>
-      <c r="BD92" t="inlineStr"/>
-      <c r="BE92" t="inlineStr"/>
-      <c r="BF92" t="inlineStr"/>
-      <c r="BG92" t="inlineStr"/>
-      <c r="BH92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Javelin Medical</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>16-01-2025</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t>11-50</t>
-        </is>
-      </c>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
-      <c r="AA93" t="inlineStr"/>
-      <c r="AB93" t="inlineStr"/>
-      <c r="AC93" t="inlineStr"/>
-      <c r="AD93" t="inlineStr"/>
-      <c r="AE93" t="inlineStr"/>
-      <c r="AF93" t="inlineStr"/>
-      <c r="AG93" t="inlineStr"/>
-      <c r="AH93" t="inlineStr"/>
-      <c r="AI93" t="inlineStr"/>
-      <c r="AJ93" t="inlineStr"/>
-      <c r="AK93" t="inlineStr"/>
-      <c r="AL93" t="inlineStr"/>
-      <c r="AM93" t="inlineStr"/>
-      <c r="AN93" t="inlineStr"/>
-      <c r="AO93" t="inlineStr"/>
-      <c r="AP93" t="inlineStr"/>
-      <c r="AQ93" t="inlineStr"/>
-      <c r="AR93" t="inlineStr"/>
-      <c r="AS93" t="inlineStr"/>
-      <c r="AT93" t="inlineStr"/>
-      <c r="AU93" t="inlineStr"/>
-      <c r="AV93" t="inlineStr"/>
-      <c r="AW93" t="inlineStr"/>
-      <c r="AX93" t="inlineStr"/>
-      <c r="AY93" t="inlineStr"/>
-      <c r="AZ93" t="inlineStr"/>
-      <c r="BA93" t="inlineStr"/>
-      <c r="BB93" t="inlineStr"/>
-      <c r="BC93" t="inlineStr"/>
-      <c r="BD93" t="inlineStr"/>
-      <c r="BE93" t="inlineStr"/>
-      <c r="BF93" t="inlineStr"/>
-      <c r="BG93" t="inlineStr"/>
-      <c r="BH93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Kadimastem</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>16-01-2025</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>Public</t>
-        </is>
-      </c>
-      <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
-      <c r="AA94" t="inlineStr"/>
-      <c r="AB94" t="inlineStr"/>
-      <c r="AC94" t="inlineStr"/>
-      <c r="AD94" t="inlineStr"/>
-      <c r="AE94" t="inlineStr"/>
-      <c r="AF94" t="inlineStr"/>
-      <c r="AG94" t="inlineStr"/>
-      <c r="AH94" t="inlineStr"/>
-      <c r="AI94" t="inlineStr"/>
-      <c r="AJ94" t="inlineStr"/>
-      <c r="AK94" t="inlineStr"/>
-      <c r="AL94" t="inlineStr"/>
-      <c r="AM94" t="inlineStr"/>
-      <c r="AN94" t="inlineStr"/>
-      <c r="AO94" t="inlineStr"/>
-      <c r="AP94" t="inlineStr"/>
-      <c r="AQ94" t="inlineStr"/>
-      <c r="AR94" t="inlineStr"/>
-      <c r="AS94" t="inlineStr"/>
-      <c r="AT94" t="inlineStr"/>
-      <c r="AU94" t="inlineStr"/>
-      <c r="AV94" t="inlineStr"/>
-      <c r="AW94" t="inlineStr"/>
-      <c r="AX94" t="inlineStr"/>
-      <c r="AY94" t="inlineStr"/>
-      <c r="AZ94" t="inlineStr"/>
-      <c r="BA94" t="inlineStr"/>
-      <c r="BB94" t="inlineStr"/>
-      <c r="BC94" t="inlineStr"/>
-      <c r="BD94" t="inlineStr"/>
-      <c r="BE94" t="inlineStr"/>
-      <c r="BF94" t="inlineStr"/>
-      <c r="BG94" t="inlineStr"/>
-      <c r="BH94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Microbot Medical</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>16-01-2025</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr">
-        <is>
-          <t>Public</t>
-        </is>
-      </c>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
-      <c r="AA95" t="inlineStr"/>
-      <c r="AB95" t="inlineStr"/>
-      <c r="AC95" t="inlineStr"/>
-      <c r="AD95" t="inlineStr"/>
-      <c r="AE95" t="inlineStr"/>
-      <c r="AF95" t="inlineStr"/>
-      <c r="AG95" t="inlineStr"/>
-      <c r="AH95" t="inlineStr"/>
-      <c r="AI95" t="inlineStr"/>
-      <c r="AJ95" t="inlineStr"/>
-      <c r="AK95" t="inlineStr"/>
-      <c r="AL95" t="inlineStr"/>
-      <c r="AM95" t="inlineStr"/>
-      <c r="AN95" t="inlineStr"/>
-      <c r="AO95" t="inlineStr"/>
-      <c r="AP95" t="inlineStr"/>
-      <c r="AQ95" t="inlineStr"/>
-      <c r="AR95" t="inlineStr"/>
-      <c r="AS95" t="inlineStr"/>
-      <c r="AT95" t="inlineStr"/>
-      <c r="AU95" t="inlineStr"/>
-      <c r="AV95" t="inlineStr"/>
-      <c r="AW95" t="inlineStr"/>
-      <c r="AX95" t="inlineStr"/>
-      <c r="AY95" t="inlineStr"/>
-      <c r="AZ95" t="inlineStr"/>
-      <c r="BA95" t="inlineStr"/>
-      <c r="BB95" t="inlineStr"/>
-      <c r="BC95" t="inlineStr"/>
-      <c r="BD95" t="inlineStr"/>
-      <c r="BE95" t="inlineStr"/>
-      <c r="BF95" t="inlineStr"/>
-      <c r="BG95" t="inlineStr"/>
-      <c r="BH95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Nurami Medical</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>16-01-2025</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
-      <c r="AA96" t="inlineStr"/>
-      <c r="AB96" t="inlineStr"/>
-      <c r="AC96" t="inlineStr"/>
-      <c r="AD96" t="inlineStr"/>
-      <c r="AE96" t="inlineStr"/>
-      <c r="AF96" t="inlineStr"/>
-      <c r="AG96" t="inlineStr"/>
-      <c r="AH96" t="inlineStr"/>
-      <c r="AI96" t="inlineStr"/>
-      <c r="AJ96" t="inlineStr"/>
-      <c r="AK96" t="inlineStr"/>
-      <c r="AL96" t="inlineStr"/>
-      <c r="AM96" t="inlineStr"/>
-      <c r="AN96" t="inlineStr"/>
-      <c r="AO96" t="inlineStr"/>
-      <c r="AP96" t="inlineStr"/>
-      <c r="AQ96" t="inlineStr"/>
-      <c r="AR96" t="inlineStr"/>
-      <c r="AS96" t="inlineStr"/>
-      <c r="AT96" t="inlineStr"/>
-      <c r="AU96" t="inlineStr"/>
-      <c r="AV96" t="inlineStr"/>
-      <c r="AW96" t="inlineStr"/>
-      <c r="AX96" t="inlineStr"/>
-      <c r="AY96" t="inlineStr"/>
-      <c r="AZ96" t="inlineStr"/>
-      <c r="BA96" t="inlineStr"/>
-      <c r="BB96" t="inlineStr"/>
-      <c r="BC96" t="inlineStr"/>
-      <c r="BD96" t="inlineStr"/>
-      <c r="BE96" t="inlineStr"/>
-      <c r="BF96" t="inlineStr"/>
-      <c r="BG96" t="inlineStr"/>
-      <c r="BH96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>NurExone Biologic</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>16-01-2025</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>Public</t>
-        </is>
-      </c>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
-      <c r="AA97" t="inlineStr"/>
-      <c r="AB97" t="inlineStr"/>
-      <c r="AC97" t="inlineStr"/>
-      <c r="AD97" t="inlineStr"/>
-      <c r="AE97" t="inlineStr"/>
-      <c r="AF97" t="inlineStr"/>
-      <c r="AG97" t="inlineStr"/>
-      <c r="AH97" t="inlineStr"/>
-      <c r="AI97" t="inlineStr"/>
-      <c r="AJ97" t="inlineStr"/>
-      <c r="AK97" t="inlineStr"/>
-      <c r="AL97" t="inlineStr"/>
-      <c r="AM97" t="inlineStr"/>
-      <c r="AN97" t="inlineStr"/>
-      <c r="AO97" t="inlineStr"/>
-      <c r="AP97" t="inlineStr"/>
-      <c r="AQ97" t="inlineStr"/>
-      <c r="AR97" t="inlineStr"/>
-      <c r="AS97" t="inlineStr"/>
-      <c r="AT97" t="inlineStr"/>
-      <c r="AU97" t="inlineStr"/>
-      <c r="AV97" t="inlineStr"/>
-      <c r="AW97" t="inlineStr"/>
-      <c r="AX97" t="inlineStr"/>
-      <c r="AY97" t="inlineStr"/>
-      <c r="AZ97" t="inlineStr"/>
-      <c r="BA97" t="inlineStr"/>
-      <c r="BB97" t="inlineStr"/>
-      <c r="BC97" t="inlineStr"/>
-      <c r="BD97" t="inlineStr"/>
-      <c r="BE97" t="inlineStr"/>
-      <c r="BF97" t="inlineStr"/>
-      <c r="BG97" t="inlineStr"/>
-      <c r="BH97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Perflow Medical</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>16-01-2025</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>Mature</t>
-        </is>
-      </c>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr"/>
-      <c r="AB98" t="inlineStr"/>
-      <c r="AC98" t="inlineStr"/>
-      <c r="AD98" t="inlineStr"/>
-      <c r="AE98" t="inlineStr"/>
-      <c r="AF98" t="inlineStr"/>
-      <c r="AG98" t="inlineStr"/>
-      <c r="AH98" t="inlineStr"/>
-      <c r="AI98" t="inlineStr"/>
-      <c r="AJ98" t="inlineStr"/>
-      <c r="AK98" t="inlineStr"/>
-      <c r="AL98" t="inlineStr"/>
-      <c r="AM98" t="inlineStr"/>
-      <c r="AN98" t="inlineStr"/>
-      <c r="AO98" t="inlineStr"/>
-      <c r="AP98" t="inlineStr"/>
-      <c r="AQ98" t="inlineStr"/>
-      <c r="AR98" t="inlineStr"/>
-      <c r="AS98" t="inlineStr"/>
-      <c r="AT98" t="inlineStr"/>
-      <c r="AU98" t="inlineStr"/>
-      <c r="AV98" t="inlineStr"/>
-      <c r="AW98" t="inlineStr"/>
-      <c r="AX98" t="inlineStr"/>
-      <c r="AY98" t="inlineStr"/>
-      <c r="AZ98" t="inlineStr"/>
-      <c r="BA98" t="inlineStr"/>
-      <c r="BB98" t="inlineStr"/>
-      <c r="BC98" t="inlineStr"/>
-      <c r="BD98" t="inlineStr"/>
-      <c r="BE98" t="inlineStr"/>
-      <c r="BF98" t="inlineStr"/>
-      <c r="BG98" t="inlineStr"/>
-      <c r="BH98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>RetiSpec</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>16-01-2025</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr">
-        <is>
-          <t>11-50</t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="inlineStr"/>
-      <c r="AC99" t="inlineStr"/>
-      <c r="AD99" t="inlineStr"/>
-      <c r="AE99" t="inlineStr"/>
-      <c r="AF99" t="inlineStr"/>
-      <c r="AG99" t="inlineStr"/>
-      <c r="AH99" t="inlineStr"/>
-      <c r="AI99" t="inlineStr"/>
-      <c r="AJ99" t="inlineStr"/>
-      <c r="AK99" t="inlineStr"/>
-      <c r="AL99" t="inlineStr"/>
-      <c r="AM99" t="inlineStr"/>
-      <c r="AN99" t="inlineStr"/>
-      <c r="AO99" t="inlineStr"/>
-      <c r="AP99" t="inlineStr"/>
-      <c r="AQ99" t="inlineStr"/>
-      <c r="AR99" t="inlineStr"/>
-      <c r="AS99" t="inlineStr"/>
-      <c r="AT99" t="inlineStr"/>
-      <c r="AU99" t="inlineStr"/>
-      <c r="AV99" t="inlineStr"/>
-      <c r="AW99" t="inlineStr"/>
-      <c r="AX99" t="inlineStr"/>
-      <c r="AY99" t="inlineStr"/>
-      <c r="AZ99" t="inlineStr"/>
-      <c r="BA99" t="inlineStr"/>
-      <c r="BB99" t="inlineStr"/>
-      <c r="BC99" t="inlineStr"/>
-      <c r="BD99" t="inlineStr"/>
-      <c r="BE99" t="inlineStr"/>
-      <c r="BF99" t="inlineStr"/>
-      <c r="BG99" t="inlineStr"/>
-      <c r="BH99" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
